--- a/mallas/MALLAS CURRICULARES NUEVOS PROGRAMAS.xlsx
+++ b/mallas/MALLAS CURRICULARES NUEVOS PROGRAMAS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/238b960ec7e7fce5/Documentos/GitHub/ESPECIALIZACION_EN_INDUSTRIA_5.0_Y_AUTOMATIZACION_INDUSTRIAL/mallas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{02D096C0-AA8A-46F6-80B5-8491D0697291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F20979B3-BFA9-4164-BB14-9D3092B42FDC}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="13_ncr:1_{02D096C0-AA8A-46F6-80B5-8491D0697291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{71F337E0-4A64-4F58-B429-A1A8BF7CF2A3}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13152" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1006,13 +1006,7 @@
     <t>Robótica Colaborativa y Automatización Industrial</t>
   </si>
   <si>
-    <t>Sistemas de Control Avanzado en Procesos Automatizados</t>
-  </si>
-  <si>
     <t>Analítica de Datos y Machine Learning para la Optimización Industrial</t>
-  </si>
-  <si>
-    <t>IoT Industrial</t>
   </si>
   <si>
     <t>Electiva</t>
@@ -1037,6 +1031,12 @@
   </si>
   <si>
     <t>Prototipado y Fabricación avanzada</t>
+  </si>
+  <si>
+    <t>Seminario de Proyecto Aplicado (Opción de Grado)</t>
+  </si>
+  <si>
+    <t>Sistemas de Control Conectados e IoT Industrial</t>
   </si>
 </sst>
 </file>
@@ -3334,8 +3334,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="448" y="0"/>
-          <a:ext cx="458656" cy="266699"/>
+          <a:off x="443" y="0"/>
+          <a:ext cx="453581" cy="266699"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -3384,8 +3384,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="37221" y="66621"/>
-          <a:ext cx="375793" cy="133242"/>
+          <a:off x="36809" y="66621"/>
+          <a:ext cx="371635" cy="133242"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3430,8 +3430,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="37221" y="66621"/>
-        <a:ext cx="375793" cy="133242"/>
+        <a:off x="36809" y="66621"/>
+        <a:ext cx="371635" cy="133242"/>
       </dsp:txXfrm>
     </dsp:sp>
   </dsp:spTree>
@@ -23051,99 +23051,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2914650" cy="438150"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="Shape 93">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A908C23E-1D74-42FD-91E0-63B90EB4F377}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1851660" y="15502890"/>
-          <a:ext cx="2914650" cy="438150"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="45700" rIns="91425" bIns="45700" anchor="t" anchorCtr="0">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buNone/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-              <a:sym typeface="Calibri"/>
-            </a:rPr>
-            <a:t>HRS: HORAS PRESENCIALES SEMANALES APROX</a:t>
-          </a:r>
-          <a:endParaRPr sz="1400"/>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buNone/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-              <a:sym typeface="Calibri"/>
-            </a:rPr>
-            <a:t>CRS: CREDITOS SEMESTRALES</a:t>
-          </a:r>
-          <a:endParaRPr sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>90487</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2000250" cy="790575"/>
     <xdr:sp macro="" textlink="">
@@ -23159,7 +23070,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1804035" y="14197965"/>
+          <a:off x="7219950" y="11144250"/>
           <a:ext cx="2000250" cy="790575"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -23509,6 +23420,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
@@ -39739,8 +39654,8 @@
   </sheetPr>
   <dimension ref="F2:AJ53"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="V32" sqref="V32"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="S32" sqref="S32:U32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.41796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -39818,7 +39733,7 @@
       <c r="P4" s="114"/>
       <c r="Q4" s="114"/>
       <c r="R4" s="195" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="S4" s="114"/>
       <c r="T4" s="114"/>
@@ -40024,7 +39939,7 @@
       <c r="F11" s="41"/>
       <c r="G11" s="101"/>
       <c r="H11" s="191" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="I11" s="192"/>
       <c r="J11" s="192"/>
@@ -40032,14 +39947,14 @@
       <c r="L11" s="192"/>
       <c r="M11" s="101"/>
       <c r="N11" s="187" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="O11" s="185"/>
       <c r="P11" s="186"/>
       <c r="Q11" s="95"/>
       <c r="R11" s="95"/>
       <c r="S11" s="187" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="T11" s="185"/>
       <c r="U11" s="186"/>
@@ -40190,7 +40105,7 @@
       <c r="Q16" s="95"/>
       <c r="R16" s="95"/>
       <c r="S16" s="184" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="T16" s="185"/>
       <c r="U16" s="186"/>
@@ -40312,7 +40227,7 @@
     </row>
     <row r="21" spans="8:36" ht="9.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="H21" s="181" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="I21" s="181"/>
       <c r="J21" s="181"/>
@@ -40329,11 +40244,11 @@
       <c r="Q21" s="95"/>
       <c r="R21" s="95"/>
       <c r="S21" s="103">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T21" s="94"/>
       <c r="U21" s="103">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="V21" s="43"/>
       <c r="W21" s="87"/>
@@ -40365,7 +40280,7 @@
       <c r="Q22" s="95"/>
       <c r="R22" s="95"/>
       <c r="S22" s="187" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="T22" s="185"/>
       <c r="U22" s="186"/>
@@ -40497,21 +40412,21 @@
     </row>
     <row r="27" spans="8:36" ht="99" customHeight="1" x14ac:dyDescent="0.6">
       <c r="H27" s="182" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="I27" s="182"/>
       <c r="J27" s="182"/>
       <c r="K27" s="182"/>
       <c r="L27" s="182"/>
       <c r="N27" s="187" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="O27" s="185"/>
       <c r="P27" s="186"/>
       <c r="Q27" s="95"/>
       <c r="R27" s="95"/>
       <c r="S27" s="187" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="T27" s="185"/>
       <c r="U27" s="186"/>
@@ -40583,12 +40498,11 @@
       <c r="Q31" s="97"/>
       <c r="R31" s="97"/>
       <c r="S31" s="104">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T31" s="94"/>
       <c r="U31" s="104">
-        <f>S31*16</f>
-        <v>32</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="8:36" ht="69.3" customHeight="1" x14ac:dyDescent="0.6">
@@ -40598,7 +40512,7 @@
       <c r="Q32" s="97"/>
       <c r="R32" s="97"/>
       <c r="S32" s="187" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="T32" s="185"/>
       <c r="U32" s="186"/>
@@ -40630,7 +40544,8 @@
       </c>
       <c r="O35" s="99"/>
       <c r="P35" s="98">
-        <v>16</v>
+        <f>SUM(P10:P26)</f>
+        <v>224</v>
       </c>
       <c r="Q35" s="95"/>
       <c r="R35" s="95"/>
@@ -40640,7 +40555,8 @@
       </c>
       <c r="T35" s="99"/>
       <c r="U35" s="98">
-        <v>16</v>
+        <f>SUM(U10:U31)</f>
+        <v>224</v>
       </c>
       <c r="V35" s="43"/>
       <c r="W35" s="86"/>
@@ -40736,9 +40652,9 @@
       <c r="W41" s="56" t="s">
         <v>290</v>
       </c>
-      <c r="X41" s="73" t="e">
-        <f>SUM(N35,#REF!,S35,W35,AA35)</f>
-        <v>#REF!</v>
+      <c r="X41" s="73">
+        <f>SUM(N35,S35,W35,AA35)</f>
+        <v>28</v>
       </c>
       <c r="Y41" s="35"/>
     </row>
